--- a/Result/check3/2025-03-04.xlsx
+++ b/Result/check3/2025-03-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -638,17 +643,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9904</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12223.502</t>
+          <t>2020.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -658,172 +663,177 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>18.16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12224</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>10516</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-488029551.0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>寶成</t>
+          <t>83181520.0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>統一實</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>22.67</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>27.91</t>
+          <t>17.37</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>114335</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>鞋類製造63.95%、運動用品零售35.67%、其他0.38% (2023年)</t>
+          <t>26609</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>寶成-運動休閒-上市</t>
+          <t>Pet瓶及TP48.89%、鋼板32.37%、底片8.20%、鐵罐6.16%、PET瓶蓋2.68%、其他1.71% (2023年)</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>統一實-其他-上市</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>其他平</t>
         </is>
       </c>
     </row>
@@ -835,17 +845,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6916</t>
+          <t>9904</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5044.343</t>
+          <t>12223.502</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -855,172 +865,177 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100.01</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>28.35</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>38.8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>48</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>8043</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>223.0</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-57257511.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>華凌</t>
+          <t>-488029551.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>寶成</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>運動休閒</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>177.19</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>28.11</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>STN顯示器模組47.04%、TFT顯示器模組28.75%、OLED顯示器面板及模組23.00%、其他1.22% (2023年)</t>
+          <t>114483</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>華凌-光電業-上市</t>
+          <t>鞋類製造63.95%、運動用品零售35.67%、其他0.38% (2023年)</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>寶成-運動休閒-上市</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>運動休閒右上</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6416</t>
+          <t>8147</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6274.186</t>
+          <t>5311.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1052,172 +1067,177 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>62.39</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>137.5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>5311</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>193.0</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>-32.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>996297465.0</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>瑞祺電通</t>
+          <t>761582.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>正淩</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>33.66</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>70.15</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>10122</t>
+          <t>68.09</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>網路通訊安全相關產品76.00%、網路通訊其他產品24.00% (2023年)</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>瑞祺電通-通信網路業-上市</t>
+          <t>連接器75.66%、背板, 機箱等電子構裝產品20.49%、其他3.86% (2023年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>正淩-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -1229,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6257</t>
+          <t>6505</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20697.348</t>
+          <t>7338.779</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1249,172 +1269,177 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>10970</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>4.36</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>82.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>20697</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2024-12-12</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2614936193.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>矽格</t>
+          <t>-307480171.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>台塑化</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>油電燃氣業</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>61.24</t>
+          <t>63.65</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>39681</t>
+          <t>26.18</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>測試81.97%、封裝17.41%、其他0.62% (2023年)</t>
+          <t>381991</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>矽格-半導體業-上市</t>
+          <t>柴油27.49%、其他24.93%、石油化學品(乙烯及丙烯等)18.12%、汽油16.28%、航空燃料油7.04%、電力4.50%、蒸汽供應1.49%、勞務0.16% (2024年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>台塑化-油電燃氣業-上市</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6416</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10535.285</t>
+          <t>6274.186</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1446,172 +1471,177 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>168.5</t>
+          <t>83.09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>10535</t>
+          <t>42</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>7551</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-4.45</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>175.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>193.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>-2.6</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1781817834.0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>996297465.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>瑞祺電通</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>42.69</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>33922</t>
+          <t>48.71</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>自動化供應系統業務48.49%、高科技設備材料銷售及服務18.38%、客製化設備研發製造業務16.59%、整合系統16.55% (2023年)</t>
+          <t>9865</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>網路通訊安全相關產品76.00%、網路通訊其他產品24.00% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>瑞祺電通-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>通信網路業右上</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>6257</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5338.0</t>
+          <t>20697.348</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1643,172 +1673,177 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>5338</t>
+          <t>73</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>8952</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>136285.0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>光聯</t>
+          <t>2614936193.0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>矽格</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>101.09</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>62.63</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
+          <t>39584</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>光聯-光電業-上櫃</t>
+          <t>測試81.97%、封裝17.41%、其他0.62% (2023年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>矽格-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>半導體業右上</t>
         </is>
       </c>
     </row>
@@ -1820,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>6196</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13601.0</t>
+          <t>10535.285</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1840,172 +1875,177 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>87.24</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>144.5</t>
+          <t>76.15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>168.5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13601</t>
+          <t>128</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>13835</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>175.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1507902.0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>茂訊</t>
+          <t>1781817834.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>帆宣</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>15.08</t>
+          <t>74.75</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>18.9</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>8480</t>
+          <t>42.62</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>筆記型電腦(NB)97.98%、電腦周邊產品2.02% (2023年)</t>
+          <t>34022</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>茂訊-電腦及週邊設備業-上櫃</t>
+          <t>自動化供應系統業務48.49%、高科技設備材料銷售及服務18.38%、客製化設備研發製造業務16.59%、整合系統16.55% (2023年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
         </is>
       </c>
     </row>
@@ -2017,17 +2057,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6509.0</t>
+          <t>13601.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2037,172 +2077,177 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>77.61</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>209.0</t>
+          <t>87.24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>144.5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6509</t>
+          <t>71</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>10781</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-9.16</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>126.0</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-5.86</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>3682272.0</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>大綜</t>
+          <t>1507902.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>茂訊</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>35.74</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>8152</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>電腦週邊及其他35.31%、伺服器主機27.29%、個人電腦及筆記型電腦22.53%、企業應用軟體8.95%、服務及顧問5.92% (2023年)</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>大綜-資訊服務業-上櫃</t>
+          <t>筆記型電腦(NB)97.98%、電腦周邊產品2.02% (2023年)</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>茂訊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -2214,192 +2259,197 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6509.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>6277</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-3.21</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8050.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>14.05</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>8051</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>169995044.0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>遠東銀</t>
+          <t>3682272.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>大綜</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>35.74</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>29.14</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>60069</t>
+          <t>29.76</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>淨利息收益50.85%、公平價值變動之金融資產與金20.95%、手續費20.63%、其他利息以外淨收益2.21%、外幣匯兌收益1.67%、廉價購買收益1.51%、透過其他綜合損益按公允價值1.42%、採權益法認列之投資收益0.77% (2023年)</t>
+          <t>7899</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>遠東銀-金融保險-上市</t>
+          <t>電腦週邊及其他35.31%、伺服器主機27.29%、個人電腦及筆記型電腦22.53%、企業應用軟體8.95%、服務及顧問5.92% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>大綜-資訊服務業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>資訊服務業右上</t>
         </is>
       </c>
     </row>
@@ -2411,17 +2461,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25266.644</t>
+          <t>32724.445</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2431,172 +2481,177 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>83.70</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>82.41</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>117.5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>25267</t>
+          <t>124</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>32726</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-8.48</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-4.91</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>1230383595.0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>4732867501.0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>威強電</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>112307</t>
+          <t>72.87</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>淨利息收益64.72%、手續費22.50%、公平價值變動之金融資產與金5.97%、兌換損益4.45%、透過其他綜合損益按公允價值2.15%、其他利息以外淨收益0.21% (2023年)</t>
+          <t>19779</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>工業電腦產品(IPC)62.48%、工業電腦周邊及組件32.05%、其他5.47% (2023年)</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>威強電-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -2608,17 +2663,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>32559.0</t>
+          <t>32948.625</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2628,172 +2683,177 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>48.61</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>12.4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>32559</t>
+          <t>219</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>18755</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>181.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>-34.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2823056.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>-2294137789.0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>新光金</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>7542</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>220520</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>淨利息收益448.08%、投資性不動產37.31%、透過其他綜合損益按公允價值27.85%、外幣匯兌收益15.83%、手續費及佣金10.87%、其他3.69%、資產減損迴轉利益(減損損失)2.79%、廉價購買收益0.07% (2023年)</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>新光金-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -2805,17 +2865,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43768.737</t>
+          <t>19756.808</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2825,172 +2885,177 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>53.79</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>86.5</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>43769</t>
+          <t>103</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>15609</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>8705208574.0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>慧洋-KY</t>
+          <t>-454750888.0</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>臺企銀</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>64564</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>租金收入98.05%、其他1.55%、運費0.29%、船舶管理0.12% (2023年)</t>
+          <t>142562</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>慧洋-KY-航運業-上市</t>
+          <t>利息收入153.91%、公平價值變動之金融資產與金21.05%、手續費淨收益14.47%、透過其他綜合損益按公允價值3.87%、證券經紀1.21%、兌換損益0.61%、其他利息以外淨收益0.23% (2023年)</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>臺企銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>金融保險平</t>
         </is>
       </c>
     </row>
@@ -3002,17 +3067,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8103.214</t>
+          <t>25266.644</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3022,172 +3087,177 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>51.81</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>83.70</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>220</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>17547</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
+          <t>-2.23</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>1551063413.0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>美律</t>
+          <t>1230383595.0</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>48.73</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>14.32</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>30673</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>耳機62.65%、音響及揚聲器31.65%、其他5.70% (2023年)</t>
+          <t>111479</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>美律-通信網路業-上市</t>
+          <t>淨利息收益64.72%、手續費22.50%、公平價值變動之金融資產與金5.97%、兌換損益4.45%、透過其他綜合損益按公允價值2.15%、其他利息以外淨收益0.21% (2023年)</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>台中銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -3199,17 +3269,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7852.745</t>
+          <t>32559.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3219,172 +3289,177 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>65.70</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>73.4</t>
+          <t>48.61</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>7853</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>249.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>181.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>1805465133.0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>精元</t>
+          <t>2823056.0</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>29.88</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>14331</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>鍵盤100.00% (2023年)</t>
+          <t>7511</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>精元-電腦及週邊設備業-上市</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -3396,17 +3471,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>30234.915</t>
+          <t>43768.737</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3416,172 +3491,177 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18.64</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>53.79</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>86.5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30235</t>
+          <t>215</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>49063</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>241.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-2.37</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>4417569251.0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>昆盈</t>
+          <t>8705208574.0</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>慧洋-KY</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>10633</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>電腦周邊產品62.84%、影像光電34.98%、消費性電子產品1.64%、其他0.53% (2023年)</t>
+          <t>63072</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
+          <t>租金-長約88.33%、租金-短約10.50%、其他1.06%、船舶管理0.11% (2024年)</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>慧洋-KY-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -3593,17 +3673,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5234.623</t>
+          <t>32968.297</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3613,172 +3693,177 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>36.55</t>
+          <t>37.35</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>75.2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>187</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>32307</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>-1.9</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>382074736.0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>佳世達</t>
+          <t>7397429502.0</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>裕民</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>29.72</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>70448</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>電子產品92.68%、其他7.32% (2023年)</t>
+          <t>62365</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>佳世達-電腦及週邊設備業-上市</t>
+          <t>運費98.18%、其他1.82% (2023年)</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>裕民-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -3790,17 +3875,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>75503.996</t>
+          <t>8103.214</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3810,172 +3895,177 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>51.81</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>75504</t>
+          <t>103</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>11048</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>4097127998.0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>1551063413.0</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>美律</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>48.73</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>24777</t>
+          <t>48.71</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>31433</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>耳機62.65%、音響及揚聲器31.65%、其他5.70% (2023年)</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>美律-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>通信網路業右上</t>
         </is>
       </c>
     </row>
@@ -3987,17 +4077,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20064.818</t>
+          <t>3494.397</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4007,172 +4097,1995 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>5506</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>338790148.0</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>毅嘉</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>19.76</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>12763</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>毅嘉-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5234.623</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>7916</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
           <t>0.38</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>53.22</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>28.1</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>382074736.0</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>佳世達</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>72.87</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>71508</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>電子產品92.68%、其他7.32% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>佳世達-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2344</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>65027.097</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>20065</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>54459</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>-1082906719.0</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>華邦電</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>144.62</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>62.63</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>84600</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>華邦電-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>半導體業右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>75503.996</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>45456</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>4097127998.0</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>廣宇</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>24544</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>廣宇-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8681.702</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>6937</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>-267876176.0</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>金寶</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>39333</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>消費性電子產品98.90%、其他1.10% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>金寶-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-1.95</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2936.308</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-2.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>8146</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>-361125652.0</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>新鋼</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>60.31</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>不�袗�板等100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>新鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-1.77</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>34461.064</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>64566</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>-438184852.0</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>大成鋼</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>38.67</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>60.31</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>120496</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>大成鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>53253.946</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>23.6</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>59777</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>-190109410.0</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>中鋼</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>185.38</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>60.31</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>379210</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>中鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>鋼鐵工業平</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20436.625</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>15604</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>-178485554.0</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>中石化</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>57.91</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>31414</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>中石化-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>32792.625</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>0.30</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>34.6</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>27309</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>-1751056100.0</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>台化</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>-3348423853.0</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>104.07</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>56.48</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>164699</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>其他18.05%、純對苯二甲酸(PTA)13.05%、ABS樹脂11.73%、合成酚8.24%、聚苯乙烯(PS)6.92%、苯乙烯(SM)6.84%、對二甲苯5.02%、純間苯二甲酸(PIA)4.47%、丙酮3.92%、聚丙烯3.91%、電力3.57%、油品3.38%、鄰二甲苯2.00%、聚碳酸酯樹脂1.90%、紗1.23%、聚胺/聚酯簾布1.17%、聚酯纖維0.93%、醋酸0.93%、尼龍絲0.88%、瓶用聚酯粒0.80%、膠膜0.59%、耐隆粒0.34%、嫘縈棉0.13%、苯0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>台化-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>29.54</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>265424</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>水泥工業平</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-03-04.xlsx
+++ b/Result/check3/2025-03-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,12 +688,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10516</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -748,34 +748,34 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>83181520.0</t>
@@ -798,7 +798,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>17.89</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>38.11</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>26609</t>
+          <t>27398</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8043</t>
+          <t>10619</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -950,34 +950,34 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-1.31</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>-488029551.0</t>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>28.11</t>
+          <t>27.38</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>114483</t>
+          <t>112862</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8147</t>
+          <t>6505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5311.0</t>
+          <t>7338.779</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1067,22 +1067,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>62.39</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>137.5</t>
+          <t>38.35</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1092,152 +1092,152 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>86</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5311</t>
+          <t>10836</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>-3.74</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-32.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>761582.0</t>
+          <t>-307480171.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>正淩</t>
+          <t>台塑化</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>油電燃氣業</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>70.15</t>
+          <t>61.51</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>5567</t>
+          <t>369131</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>連接器75.66%、背板, 機箱等電子構裝產品20.49%、其他3.86% (2023年)</t>
+          <t>柴油27.49%、其他24.93%、石油化學品(乙烯及丙烯等)18.12%、汽油16.28%、航空燃料油7.04%、電力4.50%、蒸汽供應1.49%、勞務0.16% (2024年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>正淩-電子零組件業-上櫃</t>
+          <t>台塑化-油電燃氣業-上市</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
     </row>
@@ -1249,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6505</t>
+          <t>6416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7338.779</t>
+          <t>6274.186</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1269,22 +1269,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>82.57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>38.35</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1294,32 +1294,32 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10970</t>
+          <t>7599</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>-5.80</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1329,37 +1329,37 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>193.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1369,32 +1369,32 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-307480171.0</t>
+          <t>996297465.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>台塑化</t>
+          <t>瑞祺電通</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>油電燃氣業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1404,42 +1404,42 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>15.62</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>63.65</t>
+          <t>33.66</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>26.18</t>
+          <t>49.37</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>381991</t>
+          <t>10122</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>柴油27.49%、其他24.93%、石油化學品(乙烯及丙烯等)18.12%、汽油16.28%、航空燃料油7.04%、電力4.50%、蒸汽供應1.49%、勞務0.16% (2024年)</t>
+          <t>網路通訊安全相關產品76.00%、網路通訊其他產品24.00% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>台塑化-油電燃氣業-上市</t>
+          <t>瑞祺電通-通信網路業-上市</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6416</t>
+          <t>6257</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6274.186</t>
+          <t>20697.348</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1496,52 +1496,52 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7551</t>
+          <t>8633</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-4.45</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>193.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-2.76</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1571,32 +1571,32 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>996297465.0</t>
+          <t>2614936193.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>瑞祺電通</t>
+          <t>矽格</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1606,42 +1606,42 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>13.93</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>48.71</t>
+          <t>61.53</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>9865</t>
+          <t>38616</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>網路通訊安全相關產品76.00%、網路通訊其他產品24.00% (2023年)</t>
+          <t>測試81.97%、封裝17.41%、其他0.62% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>瑞祺電通-通信網路業-上市</t>
+          <t>矽格-半導體業-上市</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
     </row>
@@ -1653,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6257</t>
+          <t>6196</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20697.348</t>
+          <t>10535.285</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1673,22 +1673,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>76.15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>168.5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1698,52 +1698,52 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8952</t>
+          <t>9007</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1753,52 +1753,52 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>175.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2614936193.0</t>
+          <t>1781817834.0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>矽格</t>
+          <t>帆宣</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1808,42 +1808,42 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>74.75</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>18.79</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>62.63</t>
+          <t>42.34</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>39584</t>
+          <t>33821</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>測試81.97%、封裝17.41%、其他0.62% (2023年)</t>
+          <t>自動化供應系統業務48.49%、高科技設備材料銷售及服務18.38%、客製化設備研發製造業務16.59%、整合系統16.55% (2023年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>矽格-半導體業-上市</t>
+          <t>帆宣-其他電子業-上市</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
     </row>
@@ -1855,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10535.285</t>
+          <t>3656.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1875,22 +1875,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>76.15</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>168.5</t>
+          <t>106.5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1900,52 +1900,52 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13835</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-4.27</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1955,17 +1955,17 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>175.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1975,77 +1975,77 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1781817834.0</t>
+          <t>-385556.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>湧德</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>18.2</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>18.9</t>
+          <t>21.84</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>42.62</t>
+          <t>67.18</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>34022</t>
+          <t>8897</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>自動化供應系統業務48.49%、高科技設備材料銷售及服務18.38%、客製化設備研發製造業務16.59%、整合系統16.55% (2023年)</t>
+          <t>整合型訊號連接器-網通產品60.75%、整合型訊號連接器-其他14.05%、整合型訊號連接器-資訊產品12.98%、整合型訊號連接器-消費性電子12.22% (2023年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>湧德-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>43</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>10781</t>
+          <t>6820</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-9.16</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -2162,34 +2162,34 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-10.31</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>-5.86</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
           <t>1507902.0</t>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2222,17 +2222,17 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>28.2</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>7688</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>5494</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2364,34 +2364,34 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-2.2</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-3.21</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>3682272.0</t>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2424,17 +2424,17 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>29.14</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>30.29</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>7899</t>
+          <t>7977</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2506,12 +2506,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>101</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>32726</t>
+          <t>26034</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-8.48</t>
+          <t>-7.41</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2566,34 +2566,34 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-8.8</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>-4.91</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
           <t>4732867501.0</t>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>72.87</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>19779</t>
+          <t>19072</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>395</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>18755</t>
+          <t>51365</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2768,59 +2768,59 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>-2294137789.0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>新光金</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>-2294137789.0</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>新光金</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AH12" t="inlineStr">
         <is>
           <t>0.56</t>
@@ -2828,22 +2828,22 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>220520</t>
+          <t>222292</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>淨利息收益448.08%、投資性不動產37.31%、透過其他綜合損益按公允價值27.85%、外幣匯兌收益15.83%、手續費及佣金10.87%、其他3.69%、資產減損迴轉利益(減損損失)2.79%、廉價購買收益0.07% (2023年)</t>
+          <t>利息淨收益278.40%、兌換損益260.23%、採用覆蓋法重分類損益23.02%、投資性不動產18.15%、透過其他綜合損益按公允價值15.47%、手續費及佣金6.49%、其他3.09%、資產減損迴轉利益(減損損失)1.56% (2024年)</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -2910,12 +2910,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>107</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>15609</t>
+          <t>19342</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2970,34 +2970,34 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="AC13" t="inlineStr">
         <is>
           <t>-454750888.0</t>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>利息收入153.91%、公平價值變動之金融資產與金21.05%、手續費淨收益14.47%、透過其他綜合損益按公允價值3.87%、證券經紀1.21%、兌換損益0.61%、其他利息以外淨收益0.23% (2023年)</t>
+          <t>利息淨收益56.03%、手續費淨收益19.22%、透過損益按公允價值衡量之金18.42%、透過其他綜合損益按公允價值3.39%、證券經紀1.53%、兌換損益0.98%、其他利息以外淨收益0.37%、資產減損迴轉利益(減損損失)0.07% (2024年)</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>70</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>17547</t>
+          <t>7444</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3172,34 +3172,34 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
           <t>1230383595.0</t>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3232,22 +3232,22 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>111479</t>
+          <t>112031</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>淨利息收益64.72%、手續費22.50%、公平價值變動之金融資產與金5.97%、兌換損益4.45%、透過其他綜合損益按公允價值2.15%、其他利息以外淨收益0.21% (2023年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>68</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>24135</t>
+          <t>16609</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -3374,34 +3374,34 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>-3.63</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t>2823056.0</t>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3434,17 +3434,17 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>146</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>49063</t>
+          <t>22228</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3576,34 +3576,34 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-3.35</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>-2.37</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>8705208574.0</t>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3636,17 +3636,17 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>63072</t>
+          <t>62474</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>139</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>32307</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3733,12 +3733,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-3.04</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3778,34 +3778,34 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>-4.01</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
           <t>85</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-1.9</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
       <c r="AC17" t="inlineStr">
         <is>
           <t>7397429502.0</t>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -3838,17 +3838,17 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>62365</t>
+          <t>61097</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -3920,12 +3920,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>11048</t>
+          <t>5475</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3980,34 +3980,34 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="AC18" t="inlineStr">
         <is>
           <t>1551063413.0</t>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4040,17 +4040,17 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>48.71</t>
+          <t>49.37</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>31433</t>
+          <t>30926</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4077,17 +4077,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3494.397</t>
+          <t>5234.623</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4097,52 +4097,52 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>26588</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>0.63</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>41.6</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>5506</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-5.97</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -4152,77 +4152,77 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-6.4</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>338790148.0</t>
+          <t>382074736.0</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>佳世達</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -4232,42 +4232,42 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>30.67</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>12763</t>
+          <t>66208</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+          <t>電子產品92.68%、其他7.32% (2023年)</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>毅嘉-電子零組件業-上市</t>
+          <t>佳世達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
     </row>
@@ -4279,17 +4279,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5234.623</t>
+          <t>65027.097</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4299,22 +4299,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>36.55</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4324,72 +4324,72 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>247</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7916</t>
+          <t>49687</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -4409,22 +4409,22 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>382074736.0</t>
+          <t>-1082906719.0</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>佳世達</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -4434,42 +4434,42 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>139.62</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>72.87</t>
+          <t>61.53</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>71508</t>
+          <t>81675</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>電子產品92.68%、其他7.32% (2023年)</t>
+          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>佳世達-電腦及週邊設備業-上市</t>
+          <t>華邦電-半導體業-上市</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>半導體業右下</t>
         </is>
       </c>
     </row>
@@ -4481,17 +4481,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>65027.097</t>
+          <t>75503.996</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4501,22 +4501,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>20.83</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>18.55</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4526,72 +4526,72 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>139</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>54459</t>
+          <t>39268</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>-1082906719.0</t>
+          <t>4097127998.0</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -4636,42 +4636,42 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>144.62</t>
+          <t>23.36</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>62.63</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>84600</t>
+          <t>24336</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>華邦電-半導體業-上市</t>
+          <t>廣宇-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -4683,17 +4683,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2312</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>75503.996</t>
+          <t>8681.702</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4703,22 +4703,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>26.15</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4728,72 +4728,72 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>48</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>45456</t>
+          <t>9855</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -4803,32 +4803,32 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>4097127998.0</t>
+          <t>-267876176.0</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>金寶</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -4838,42 +4838,42 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>27.34</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>42.34</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>24544</t>
+          <t>39484</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>消費性電子產品98.90%、其他1.10% (2023年)</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>金寶-其他電子業-上市</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
     </row>
@@ -4885,17 +4885,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2312</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8681.702</t>
+          <t>34461.064</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>18.10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>26.15</t>
+          <t>47.75</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4930,107 +4930,107 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>703</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>75848</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>-267876176.0</t>
+          <t>-438184852.0</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>金寶</t>
+          <t>大成鋼</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -5040,42 +5040,42 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>27.24</t>
+          <t>39.61</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>42.62</t>
+          <t>60.52</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>39333</t>
+          <t>123417</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>消費性電子產品98.90%、其他1.10% (2023年)</t>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>金寶-其他電子業-上市</t>
+          <t>大成鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
     </row>
@@ -5087,17 +5087,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2936.308</t>
+          <t>53253.946</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5107,22 +5107,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-2.71</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20.25</t>
+          <t>23.6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -5132,72 +5132,72 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>452</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>8146</t>
+          <t>74808</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -5207,27 +5207,27 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>-361125652.0</t>
+          <t>-190109410.0</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>新鋼</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -5242,42 +5242,42 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>81.54</t>
+          <t>186.54</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>60.52</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>381570</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>不�袗�板等100.00% (2023年)</t>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>新鋼-鋼鐵工業-上市</t>
+          <t>中鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
     </row>
@@ -5289,17 +5289,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>34461.064</t>
+          <t>20436.625</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5309,22 +5309,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>18.10</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>47.75</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5334,107 +5334,107 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>64566</t>
+          <t>11046</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-1.83</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>-438184852.0</t>
+          <t>-178485554.0</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>大成鋼</t>
+          <t>中石化</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -5444,42 +5444,42 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>38.67</t>
+          <t>25.59</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>57.54</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>120496</t>
+          <t>30998</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+          <t>中石化-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>塑膠工業右下</t>
         </is>
       </c>
     </row>
@@ -5491,17 +5491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>53253.946</t>
+          <t>32792.625</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5511,22 +5511,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>57.21</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5536,27 +5536,27 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>59777</t>
+          <t>17176</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -5566,42 +5566,42 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -5616,27 +5616,27 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>-190109410.0</t>
+          <t>-3348423853.0</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -5646,444 +5646,40 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>185.38</t>
+          <t>29.24</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>379210</t>
+          <t>262781</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>中鋼-鋼鐵工業-上市</t>
+          <t>台泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
-        <is>
-          <t>鋼鐵工業平</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-1.57</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20436.625</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>10.36</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>15604</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>-178485554.0</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>中石化</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>25.94</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>57.91</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>31414</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>中石化-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>32792.625</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>57.21</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>34.6</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>27309</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>-3348423853.0</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>29.54</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>265424</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AN28" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>

--- a/Result/check3/2025-03-04.xlsx
+++ b/Result/check3/2025-03-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR40"/>
+  <dimension ref="A1:AS42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,11 @@
           <t>短增level</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -713,17 +718,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>4015</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -738,7 +743,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -768,7 +773,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -798,7 +803,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -828,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.51</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>35.17</t>
+          <t>35.29</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>28346</t>
+          <t>28740</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -874,6 +879,11 @@
       <c r="AR2" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -935,17 +945,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -955,12 +965,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1020,7 +1030,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1050,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1060,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>18212</t>
+          <t>18922</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1096,6 +1106,11 @@
       <c r="AR3" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6916</t>
+          <t>6651</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5044.343</t>
+          <t>241.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>51.88</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>28.35</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1157,72 +1172,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-5.19</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>764</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-3.56</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>223.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1237,87 +1252,92 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-57257511.0</t>
+          <t>164097.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>華凌</t>
+          <t>全宇昕</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>57.34</t>
+          <t>13.69</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>74.67</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>STN顯示器模組47.04%、TFT顯示器模組28.75%、OLED顯示器面板及模組23.00%、其他1.22% (2023年)</t>
+          <t>MOSFET83.16%、電晶體9.31%、二極體6.43%、其他1.10% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>華凌-光電業-上市</t>
+          <t>全宇昕-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>37.49</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1399,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1399,12 +1419,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>-4.89</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1434,7 +1454,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1464,7 +1484,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1509,12 +1529,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1540,6 +1560,11 @@
       <c r="AR5" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1601,17 +1626,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1626,7 +1651,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1656,7 +1681,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1716,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1726,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>74.67</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>185986</t>
+          <t>182400</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1762,6 +1787,11 @@
       <c r="AR6" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1823,17 +1853,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2189</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1848,7 +1878,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1908,7 +1938,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1938,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1948,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>33480</t>
+          <t>33918</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1984,6 +2014,11 @@
       <c r="AR7" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2045,17 +2080,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>15.82</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>13043</t>
+          <t>12545</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2065,12 +2100,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>-5.64</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2130,7 +2165,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2160,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2170,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>51.86</t>
+          <t>52.17</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>77.01</t>
+          <t>67.48</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>15573</t>
+          <t>15666</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2206,6 +2241,11 @@
       <c r="AR8" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2217,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1875.237</t>
+          <t>4997.622</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,27 +2277,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>20.27</t>
+          <t>49.61</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>946.0</t>
+          <t>206.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2267,112 +2307,112 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-4.58</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>14.53</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>12.11</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>4536713675.0</t>
+          <t>1852297614.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>材料-KY</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>化學工業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2382,52 +2422,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>18.84</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>135.29</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>92880</t>
+          <t>46825</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>二醋酸纖維絲束84.87%、二醋酸纖維素14.51%、醋酸酐0.62% (2023年)</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>材料-KY-化學工業-上市</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>化學工業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>138.32</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2439,17 +2484,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4997.622</t>
+          <t>940.659</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2459,27 +2504,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>49.61</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>206.0</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2489,37 +2534,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2052</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2529,72 +2574,72 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1852297614.0</t>
+          <t>-9593199.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2604,52 +2649,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>134.38</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>46385</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2711,17 +2761,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>13.42</t>
+          <t>14.96</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2731,12 +2781,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-2.88</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2796,7 +2846,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2826,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2836,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>100.54</t>
+          <t>102.36</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>24824</t>
+          <t>25271</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2872,6 +2922,11 @@
       <c r="AR11" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2933,17 +2988,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>36.64</t>
+          <t>36.21</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4059</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2958,7 +3013,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3018,7 +3073,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3048,7 +3103,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3058,17 +3113,17 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21.06</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5796</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -3094,6 +3149,11 @@
       <c r="AR12" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3105,17 +3165,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2567.0</t>
+          <t>23.002</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3125,197 +3185,202 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>84.9</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>21668</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>-1478974.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>昇陽</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>-305402.0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>威剛</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>33.38</t>
-        </is>
-      </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>49.31</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>30563</t>
+          <t>6483</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
+          <t>房地銷售91.19%、營建工程7.66%、租賃1.14% (2023年)</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>威剛-半導體業-上櫃</t>
+          <t>昇陽-建材營造-上市</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>56.66</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3327,82 +3392,82 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2567.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>661.414</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>84.9</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>29.45</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>145</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>16803</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-2.18</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3412,37 +3477,37 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3457,87 +3522,92 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-55738854.0</t>
+          <t>-305402.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>力特</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>74.67</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>5416</t>
+          <t>31378</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>薄膜電晶體液晶顯示器(TFT-LC80.99%、TN/STN19.01% (2023年)</t>
+          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>力特-光電業-上市</t>
+          <t>威剛-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>56.66</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3549,122 +3619,122 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>229.576</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>955.757</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>35.2</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2682</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-0.99</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3674,37 +3744,37 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>1091926.0</t>
+          <t>-2708681.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>威健</t>
+          <t>夆典</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3714,52 +3784,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>52.04</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>49.31</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>16837</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>混合式及分散式元件53.33%、晶片組及特定應用標準元件46.67%、勞務&amp;佣金&amp;其他0.01% (2023年)</t>
+          <t>建材營建69.23%、電機17.85%、其他7.22%、光電產品5.70% (2023年)</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>威健-電子通路業-上市</t>
+          <t>夆典-建材營造-上市</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3771,17 +3846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2908</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>568.688</t>
+          <t>661.414</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3791,27 +3866,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>51.98</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>29.45</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3821,57 +3896,57 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -3881,12 +3956,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3901,32 +3976,32 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>34590520.0</t>
+          <t>-55738854.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>特力</t>
+          <t>力特</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3936,52 +4011,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>17.4</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>33.43</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>10555</t>
+          <t>5560</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>貿易代理53.12%、零售-台灣39.52%、其他7.36% (2023年)</t>
+          <t>薄膜電晶體液晶顯示器(TFT-LC80.99%、TN/STN19.01% (2023年)</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>特力-貿易百貨-上市</t>
+          <t>力特-光電業-上市</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3993,17 +4073,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>772.813</t>
+          <t>955.757</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4013,27 +4093,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4043,32 +4123,32 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>2521</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4078,22 +4158,22 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4103,12 +4183,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4123,7 +4203,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4133,22 +4213,22 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-40242989.0</t>
+          <t>1091926.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>中再保</t>
+          <t>威健</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4158,52 +4238,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>52.04</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>22651</t>
+          <t>16861</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
+          <t>混合式及分散式元件53.33%、晶片組及特定應用標準元件46.67%、勞務&amp;佣金&amp;其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>中再保-金融保險-上市</t>
+          <t>威健-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>23.01</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -4215,17 +4300,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>352.43</t>
+          <t>772.813</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4235,27 +4320,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4265,72 +4350,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4345,27 +4430,27 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>19257344.0</t>
+          <t>-40242989.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>中再保</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -4380,37 +4465,37 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>11934</t>
+          <t>22651</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>中再保-金融保險-上市</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4420,12 +4505,17 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -4437,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25266.644</t>
+          <t>3654.812</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4457,137 +4547,137 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>83.70</t>
+          <t>26.48</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2154</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-1.78</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>3760</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>1230383595.0</t>
+          <t>152708524.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4602,37 +4692,37 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>114238</t>
+          <t>68446</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>利息收入111.35%、手續費18.46%、租賃12.43%、公平價值變動之金融資產與金11.58%、兌換損益6.83%、證券經紀1.77%、其他利息以外淨收益1.69%、透過其他綜合損益按公允價值1.22% (2023年)</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4642,12 +4732,17 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -4659,162 +4754,162 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>352.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>30.4</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1543</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>14602.892</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>72.6</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>45952</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>-4163458484.0</t>
+          <t>19257344.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -4824,52 +4919,57 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>265051</t>
+          <t>12170</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -4881,17 +4981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>763.944</t>
+          <t>25266.644</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4901,17 +5001,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>83.70</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4921,7 +5021,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>30.45</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4931,72 +5031,72 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5011,32 +5111,32 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>-30387545.0</t>
+          <t>1230383595.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5046,52 +5146,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>34255</t>
+          <t>114238</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -5103,17 +5208,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8103.214</t>
+          <t>14602.892</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5123,27 +5228,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>51.81</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5153,57 +5258,57 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>411</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>47721</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -5213,12 +5318,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5233,32 +5338,32 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>1551063413.0</t>
+          <t>-4163458484.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>美律</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5268,52 +5373,57 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>48.73</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>134.38</t>
+          <t>17.8</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>30926</t>
+          <t>270289</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>製成品99.98%、技術服務0.02% (2024年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>美律-通信網路業-上市</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>71.08</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -5325,17 +5435,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2477.782</t>
+          <t>763.944</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5345,17 +5455,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5365,7 +5475,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5375,22 +5485,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>10226</t>
+          <t>1455</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -5400,7 +5510,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5410,37 +5520,37 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5455,32 +5565,32 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>72202522.0</t>
+          <t>-30387545.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5490,52 +5600,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>17.8</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>4472</t>
+          <t>34309</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -5547,17 +5662,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26468.02</t>
+          <t>8103.214</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5567,27 +5682,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>51.81</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5597,72 +5712,72 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5677,32 +5792,32 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>-86335767.0</t>
+          <t>1551063413.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>美律</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5712,52 +5827,57 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>48.73</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.56</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>135.29</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>118085</t>
+          <t>31180</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
+          <t>製成品99.98%、技術服務0.02% (2024年)</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>友達-光電業-上市</t>
+          <t>美律-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>71.08</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -5769,17 +5889,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>75503.996</t>
+          <t>2477.782</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5789,27 +5909,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>48.66</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>38.15</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5819,57 +5939,57 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>35.01</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>88104</t>
+          <t>11587</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-7.12</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -5879,12 +5999,12 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -5899,32 +6019,32 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>4097127998.0</t>
+          <t>72202522.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>銘旺科</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -5934,52 +6054,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>32.38</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>27628</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -5991,217 +6116,222 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26468.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>25398</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>44412.629</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>-86335767.0</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>友達</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>17.89</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>43.6</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>44408</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-2.38</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>-1201616857.0</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>聯電</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>11.73</t>
-        </is>
-      </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>184.7</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>553928</t>
+          <t>117702</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>晶圓製造整合100.00% (2023年)</t>
+          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>聯電-半導體業-上市</t>
+          <t>友達-光電業-上市</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>30.09</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -6213,17 +6343,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1322.493</t>
+          <t>75503.996</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6233,142 +6363,142 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>48.66</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>85577</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>26.55</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>37209128.0</t>
+          <t>4097127998.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>盛餘</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6378,52 +6508,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>15.33</t>
+          <t>27.25</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>32.58</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>8913</t>
+          <t>28250</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>盛餘-鋼鐵工業-上市</t>
+          <t>廣宇-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -6435,17 +6570,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>603.217</t>
+          <t>44412.629</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6455,27 +6590,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>17.89</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>18.9</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6485,72 +6620,72 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>172</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>42307</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -6560,37 +6695,37 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>-52766849.0</t>
+          <t>-1201616857.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -6600,52 +6735,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>185.65</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>13406</t>
+          <t>558952</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>晶圓製造整合100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>聯電-半導體業-上市</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>30.09</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -6657,122 +6797,122 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1322.493</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>348.0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>69.6</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>534</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-4.88</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -6782,92 +6922,97 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>15059.0</t>
+          <t>37209128.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>易威</t>
+          <t>盛餘</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>43.08</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>9463</t>
+          <t>8849</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>學名藥60.18%、藥物開發39.82% (2023年)</t>
+          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>易威-生技醫療業-上櫃</t>
+          <t>盛餘-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>31.79</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -6879,17 +7024,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4770.696</t>
+          <t>603.217</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6899,27 +7044,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>82.23</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>205.5</t>
+          <t>18.9</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -6929,112 +7074,112 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-7.03</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-3.90</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>170.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>1821855029.0</t>
+          <t>-52766849.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>喬山</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7044,52 +7189,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>57.29</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>43.08</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>58252</t>
+          <t>13406</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>電動跑步機41.46%、重量訓練器33.23%、橢圓機6.85%、踏步機5.64%、其他5.26%、健身車4.95%、斜躺式健身車1.81%、划船機0.82% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>喬山-運動休閒-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>39.69</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -7101,17 +7251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4355.83</t>
+          <t>348.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7121,27 +7271,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>69.6</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7151,72 +7301,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-7.69</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>9333</t>
+          <t>656</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7231,87 +7381,92 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>378815216.0</t>
+          <t>15059.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>東鹼</t>
+          <t>易威</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>化學工業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>9711</t>
+          <t>9195</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>化工產品56.54%、船舶運輸29.94%、貿易-化工類產品12.77%、餐飲0.74%、其他0.02% (2023年)</t>
+          <t>學名藥60.18%、藥物開發39.82% (2023年)</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>東鹼-化學工業-上市</t>
+          <t>易威-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>化學工業右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>29.13</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -7323,17 +7478,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1032.266</t>
+          <t>4770.696</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7343,17 +7498,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>82.23</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7363,7 +7518,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>205.5</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7373,167 +7528,172 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-5.93</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>716</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-1.79</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>-1.83</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>1821855029.0</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>喬山</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>運動休閒</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
           <t>0.51</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-1.23</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>16800266.0</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>中電</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>電器電纜</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>57.29</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>24.22</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>19.05</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>5261</t>
+          <t>58858</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>LED照明75.65%、傳統照明17.10%、租金收入等7.24% (2023年)</t>
+          <t>電動跑步機41.46%、重量訓練器33.23%、橢圓機6.85%、踏步機5.64%、其他5.26%、健身車4.95%、斜躺式健身車1.81%、划船機0.82% (2023年)</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>中電-電器電纜-上市</t>
+          <t>喬山-運動休閒-上市</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>39.69</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -7595,17 +7755,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>738</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -7620,7 +7780,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -7710,7 +7870,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -7720,17 +7880,17 @@
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>45.96</t>
+          <t>44.34</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>16502</t>
+          <t>16407</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
@@ -7756,6 +7916,11 @@
       <c r="AR33" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -7767,17 +7932,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2944.479</t>
+          <t>849.805</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -7787,102 +7952,102 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>14.3</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>43.04</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>29.6</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>6567</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>10.35</t>
-        </is>
-      </c>
       <c r="R34" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>508.0</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -7897,27 +8062,27 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>350444964.0</t>
+          <t>4013243.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>強盛新</t>
+          <t>弘裕</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -7932,37 +8097,37 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>17.38</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>63.98</t>
+          <t>64.12</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>5389</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>染整加工102.59% (2023年)</t>
+          <t>長纖織物90.13%、客戶委託代工(OEM)4.24%、醫療用布2.64%、短纖織物2.51%、原紗0.48% (2023年)</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>強盛新-紡織纖維-上市</t>
+          <t>弘裕-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7972,12 +8137,17 @@
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -7989,17 +8159,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>72.498</t>
+          <t>2944.479</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8009,137 +8179,137 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>43.04</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>1326</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>1733271.0</t>
+          <t>350444964.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>年興</t>
+          <t>強盛新</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -8154,37 +8324,37 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>63.98</t>
+          <t>64.12</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>5233</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
+          <t>染整加工102.59% (2023年)</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>年興-紡織纖維-上市</t>
+          <t>強盛新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -8194,12 +8364,17 @@
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>34.75</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -8211,17 +8386,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1347.787</t>
+          <t>72.498</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8231,27 +8406,27 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>27.28</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8261,72 +8436,72 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -8336,32 +8511,32 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>776244.0</t>
+          <t>1733271.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>福懋</t>
+          <t>年興</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -8376,52 +8551,57 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>63.98</t>
+          <t>64.12</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>32935</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
+          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>福懋-紡織纖維-上市</t>
+          <t>年興-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>21.94</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -8433,17 +8613,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4786.201</t>
+          <t>1347.787</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8453,27 +8633,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>18.60</t>
+          <t>27.28</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -8483,112 +8663,112 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>4377</t>
+          <t>968</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>734335562.0</t>
+          <t>776244.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>東陽</t>
+          <t>福懋</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -8598,52 +8778,57 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>22.08</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>45.96</t>
+          <t>64.12</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>76005</t>
+          <t>33104</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
+          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>東陽-汽車工業-上市</t>
+          <t>福懋-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>46.68</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -8655,122 +8840,122 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1001.88</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -8780,92 +8965,97 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>-36425956.0</t>
+          <t>5558.0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>台達化</t>
+          <t>台翰</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>11.83</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>95.76</t>
+          <t>67.48</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>發泡級聚苯乙烯(EPS)46.39%、ABS樹脂25.42%、通用級聚苯乙烯(GPS)24.69%、玻璃棉產品3.46%、耐衝擊聚苯乙烯(IPS)0.04% (2023年)</t>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>台達化-塑膠工業-上市</t>
+          <t>台翰-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>塑膠工業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>15.84</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -8877,162 +9067,162 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4786.201</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>476.573</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>63</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>-3776631.0</t>
+          <t>734335562.0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>泰山</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
@@ -9042,52 +9232,57 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>44.34</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>10575</t>
+          <t>78666</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
+          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>泰山-食品工業-上市</t>
+          <t>東陽-汽車工業-上市</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>26.34</t>
+          <t>46.68</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -9099,217 +9294,676 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1001.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>-2.07</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>-36425956.0</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>台達化</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>5745</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>發泡級聚苯乙烯(EPS)46.39%、ABS樹脂25.42%、通用級聚苯乙烯(GPS)24.69%、玻璃棉產品3.46%、耐衝擊聚苯乙烯(IPS)0.04% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>台達化-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>476.573</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>-3776631.0</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>泰山</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>10775</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>泰山-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>食品工業平</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>26.34</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>1102</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>-0.91</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>9485.599</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>0.37</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>18.57</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>43.7</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>4374</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>6517</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
         <is>
           <t>23.0</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>77315648.0</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AG40" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH40" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>20.66</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>157113</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>12.4</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>159595</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
         <is>
           <t>水泥及熟料100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>50.12</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-03-04.xlsx
+++ b/Result/check3/2025-03-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS42"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18.16</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -718,17 +718,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4015</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>18.81</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>35.29</t>
+          <t>35.58</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>28740</t>
+          <t>28819</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2420</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -965,12 +965,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>89.52</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>18922</t>
+          <t>18803</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6651</t>
+          <t>8422</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>241.0</t>
+          <t>121.232</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>187.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,72 +1172,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>560</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.56</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1252,82 +1252,82 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>164097.0</t>
+          <t>-16408334.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>全宇昕</t>
+          <t>可寧衛</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>13.69</t>
+          <t>18.03</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>74.67</t>
+          <t>27.73</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>21136</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>MOSFET83.16%、電晶體9.31%、二極體6.43%、其他1.10% (2023年)</t>
+          <t>污染及棄置場址整治工程35.41%、掩埋33.95%、再生紙業12.79%、發電6.82%、固化服務6.74%、清理運輸服務2.03%、預拌混凝土1.99%、其他0.28% (2024年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>全宇昕-半導體業-上櫃</t>
+          <t>可寧衛-綠能環保-上市</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>62.07</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>6278</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>1172.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.25</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>37.85</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,57 +1399,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-4.89</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1474,87 +1474,87 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-210.0</t>
+          <t>-71354977.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>台生材</t>
+          <t>台表科</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>40.52</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>34064</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>腦中風血栓負壓移除導管系統67.60%、委託開發29.12%、泡沫式人工腦膜產品2.35%、醫療器材產品試製服務0.93% (2023年)</t>
+          <t>製造92.34%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>台生材-生技醫療業-上櫃</t>
+          <t>台表科-光電業-上市</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>77.24</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1678.0</t>
+          <t>5412.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>369.5</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,37 +1626,37 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>18.97</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>15140</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1666,32 +1666,32 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1706,32 +1706,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-1474418.0</t>
+          <t>1943563.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1741,47 +1741,47 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>34.18</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>53.87</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>74.67</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>182400</t>
+          <t>16178</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>半導體晶片97.35%、半導體晶錠產品1.80%、其他0.68%、電費0.16% (2023年)</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>環球晶-半導體業-上櫃</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>190.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1803,17 +1803,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1172.25</t>
+          <t>4997.622</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>49.61</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>206.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,112 +1853,112 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-71354977.0</t>
+          <t>1852297614.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>台表科</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>40.52</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>19.68</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>133.03</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>33918</t>
+          <t>48919</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>製造92.34%、其他7.66% (2023年)</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>台表科-光電業-上市</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5412.0</t>
+          <t>2726.603</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,192 +2050,192 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>49.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>480.5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2335</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>12545</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-5.64</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1943563.0</t>
+          <t>3198721058.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>高技</t>
+          <t>牧德</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>52.17</t>
+          <t>105.98</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>67.48</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>15666</t>
+          <t>26166</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>牧德-光電業-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>25.34</t>
+          <t>86.18</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2257,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4997.622</t>
+          <t>186.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>49.61</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>206.0</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,82 +2307,82 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>36.72</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>2034</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>-2.93</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2392,27 +2392,27 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1852297614.0</t>
+          <t>16532826.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2422,47 +2422,47 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>135.29</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>46825</t>
+          <t>5843</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>940.659</t>
+          <t>23.002</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,27 +2504,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2534,57 +2534,57 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>756</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2614,32 +2614,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-9593199.0</t>
+          <t>-1478974.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>艾笛森</t>
+          <t>昇陽</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2649,47 +2649,47 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.9</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>48.97</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3576</t>
+          <t>6571</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
+          <t>房地銷售91.19%、營建工程7.66%、租賃1.14% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>艾笛森-光電業-上市</t>
+          <t>昇陽-建材營造-上市</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3563</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2726.603</t>
+          <t>2567.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,27 +2731,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>49.58</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>480.5</t>
+          <t>84.9</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2761,72 +2761,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>77</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>6907</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2841,82 +2841,82 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>3198721058.0</t>
+          <t>-305402.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>牧德</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>102.36</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>75.07</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>25271</t>
+          <t>31052</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
+          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>牧德-光電業-上市</t>
+          <t>威剛-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>56.66</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -2938,17 +2938,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>186.55</t>
+          <t>772.813</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,142 +2958,142 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>55.5</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>36.21</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1915</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>79.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>16532826.0</t>
+          <t>-40242989.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>中再保</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3103,47 +3103,47 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>5796</t>
+          <t>22651</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
+          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>中再保-金融保險-上市</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3165,17 +3165,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3266</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23.002</t>
+          <t>3654.812</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,27 +3185,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>26.48</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,37 +3215,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10.87</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -3255,32 +3255,32 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3295,32 +3295,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-1478974.0</t>
+          <t>152708524.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>昇陽</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3330,47 +3330,47 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>49.31</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>6483</t>
+          <t>68851</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>房地銷售91.19%、營建工程7.66%、租賃1.14% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>昇陽-建材營造-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2567.0</t>
+          <t>352.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,192 +3412,192 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>30.4</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>84.9</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>16803</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-2.18</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-305402.0</t>
+          <t>19257344.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>74.67</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>31378</t>
+          <t>12605</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>威剛-半導體業-上櫃</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>56.66</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -3619,162 +3619,162 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25266.644</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>229.576</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>11.85</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>982</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-2708681.0</t>
+          <t>1230383595.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>夆典</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3784,47 +3784,47 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>49.31</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>114790</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>建材營建69.23%、電機17.85%、其他7.22%、光電產品5.70% (2023年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>夆典-建材營造-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>661.414</t>
+          <t>14602.892</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3866,27 +3866,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>29.45</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3896,32 +3896,32 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>267</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>25603</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -3931,37 +3931,37 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3981,27 +3981,27 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-55738854.0</t>
+          <t>-4163458484.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>力特</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4011,47 +4011,47 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>5560</t>
+          <t>272384</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>薄膜電晶體液晶顯示器(TFT-LC80.99%、TN/STN19.01% (2023年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>力特-光電業-上市</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -4073,87 +4073,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>763.944</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>955.757</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>35.2</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4163,17 +4163,17 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4203,32 +4203,32 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1091926.0</t>
+          <t>-30387545.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>威健</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4238,47 +4238,47 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>52.04</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>16861</t>
+          <t>34522</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>混合式及分散式元件53.33%、晶片組及特定應用標準元件46.67%、勞務&amp;佣金&amp;其他0.01% (2023年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>威健-電子通路業-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>772.813</t>
+          <t>2477.782</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4320,27 +4320,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>38.15</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4350,72 +4350,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>41.49</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>22454</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4430,32 +4430,32 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>-40242989.0</t>
+          <t>72202522.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>中再保</t>
+          <t>銘旺科</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4465,47 +4465,47 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>22651</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>中再保-金融保險-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3654.812</t>
+          <t>26468.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4547,27 +4547,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4577,72 +4577,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>106</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2154</t>
+          <t>24835</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4657,32 +4657,32 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>152708524.0</t>
+          <t>-86335767.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>友達</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4692,47 +4692,47 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>68446</t>
+          <t>117702</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>利息收入111.35%、手續費18.46%、租賃12.43%、公平價值變動之金融資產與金11.58%、兌換損益6.83%、證券經紀1.77%、其他利息以外淨收益1.69%、透過其他綜合損益按公允價值1.22% (2023年)</t>
+          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>友達-光電業-上市</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -4754,17 +4754,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>352.43</t>
+          <t>75503.996</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4774,27 +4774,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>48.66</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4804,72 +4804,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>216</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>54384</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4884,82 +4884,82 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>4097127998.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>廣宇</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>19257344.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>台產</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>12170</t>
+          <t>28561</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>廣宇-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -4981,17 +4981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25266.644</t>
+          <t>1322.493</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5001,17 +5001,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>83.70</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>26.55</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5031,37 +5031,37 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>542</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -5071,32 +5071,32 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5106,37 +5106,37 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>1230383595.0</t>
+          <t>37209128.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>盛餘</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5146,47 +5146,47 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>42.97</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>114238</t>
+          <t>8784</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>盛餘-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>31.79</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -5208,17 +5208,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14602.892</t>
+          <t>603.217</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5228,27 +5228,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>72.6</t>
+          <t>18.9</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5258,32 +5258,32 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>47721</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5293,27 +5293,27 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5333,37 +5333,37 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>-4163458484.0</t>
+          <t>-52766849.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5373,47 +5373,47 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>42.97</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>270289</t>
+          <t>13730</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>763.944</t>
+          <t>2944.479</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5455,102 +5455,102 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>43.04</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>30.45</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>508.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5565,32 +5565,32 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>-30387545.0</t>
+          <t>350444964.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>強盛新</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5600,47 +5600,47 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>64.57</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>34309</t>
+          <t>5129</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>染整加工102.59% (2023年)</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>強盛新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8103.214</t>
+          <t>72.498</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5682,27 +5682,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>51.81</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5712,72 +5712,72 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5797,27 +5797,27 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1551063413.0</t>
+          <t>1733271.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>美律</t>
+          <t>年興</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5827,47 +5827,47 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>48.73</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>14.56</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>135.29</t>
+          <t>64.57</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>31180</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>製成品99.98%、技術服務0.02% (2024年)</t>
+          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>美律-通信網路業-上市</t>
+          <t>年興-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>71.08</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -5889,17 +5889,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2477.782</t>
+          <t>1347.787</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5909,27 +5909,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>27.28</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5939,72 +5939,72 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>35.01</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>11587</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6014,37 +6014,37 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>72202522.0</t>
+          <t>776244.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>福懋</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6054,47 +6054,47 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>64.57</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>33272</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>福懋-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -6116,17 +6116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26468.02</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6136,27 +6136,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>23.65</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6166,72 +6166,72 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>25398</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6241,47 +6241,47 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>-86335767.0</t>
+          <t>5558.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>台翰</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6291,37 +6291,37 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>117702</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>友達-光電業-上市</t>
+          <t>台翰-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -6343,17 +6343,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>75503.996</t>
+          <t>4786.201</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6363,27 +6363,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>48.66</t>
+          <t>18.60</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6393,77 +6393,77 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>79</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>85577</t>
+          <t>6861</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -6473,32 +6473,32 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>4097127998.0</t>
+          <t>734335562.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6508,47 +6508,47 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>27.25</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>32.58</t>
+          <t>44.33</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>28250</t>
+          <t>82807</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>東陽-汽車工業-上市</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>46.68</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>44412.629</t>
+          <t>476.573</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6590,27 +6590,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6620,32 +6620,32 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>42307</t>
+          <t>583</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -6655,37 +6655,37 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -6695,37 +6695,37 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>-1201616857.0</t>
+          <t>-3776631.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>泰山</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -6735,47 +6735,47 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>185.65</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>558952</t>
+          <t>10825</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>晶圓製造整合100.00% (2023年)</t>
+          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>聯電-半導體業-上市</t>
+          <t>泰山-食品工業-上市</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>30.09</t>
+          <t>26.34</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -6797,17 +6797,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1322.493</t>
+          <t>9485.599</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6817,17 +6817,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -6847,32 +6847,32 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>63</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>11420</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -6887,32 +6887,32 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -6922,37 +6922,37 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>37209128.0</t>
+          <t>77315648.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>盛餘</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -6962,47 +6962,47 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>43.08</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>8849</t>
+          <t>161369</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
+          <t>水泥及熟料100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>盛餘-鋼鐵工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -7011,2957 +7011,6 @@
         </is>
       </c>
       <c r="AS29" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>603.217</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>18.9</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2362</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>-52766849.0</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>春源</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>43.08</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>13406</t>
-        </is>
-      </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>春源-鋼鐵工業-上市</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>鋼鐵工業右上</t>
-        </is>
-      </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>18.94</t>
-        </is>
-      </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS30" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1799</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>348.0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>69.6</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>656</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>-3.31</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>15059.0</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>易威</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>9195</t>
-        </is>
-      </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>學名藥60.18%、藥物開發39.82% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>易威-生技醫療業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>生技醫療業平</t>
-        </is>
-      </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1736</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4770.696</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>10.19</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>82.23</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>205.5</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>-5.93</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>716</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-1.79</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>-1.83</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>170.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>1821855029.0</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>喬山</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>運動休閒</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>57.29</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>24.22</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>19.05</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>58858</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>電動跑步機41.46%、重量訓練器33.23%、橢圓機6.85%、踏步機5.64%、其他5.26%、健身車4.95%、斜躺式健身車1.81%、划船機0.82% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>喬山-運動休閒-上市</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>運動休閒右上</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>39.69</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1563</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1702.431</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>66.7</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>-1.01</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>165709092.0</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>巧新</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>44.34</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>16407</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>鍛造鋁圈86.39%、其他14.85% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>巧新-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>汽車工業右上</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>41.55</t>
-        </is>
-      </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1474</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>849.805</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>36.84</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>14.3</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>688</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>129.0</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>4013243.0</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>弘裕</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>17.38</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>64.12</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>1851</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>長纖織物90.13%、客戶委託代工(OEM)4.24%、醫療用布2.64%、短纖織物2.51%、原紗0.48% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>弘裕-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>16.46</t>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1463</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2944.479</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>43.04</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>29.6</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>4499</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>-0.78</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>508.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>350444964.0</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>強盛新</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>64.12</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>5233</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>染整加工102.59% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>強盛新-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>72.498</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>3079</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-1.30</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>1733271.0</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>年興</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>18.52</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>64.12</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>年興-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1434</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>-1.06</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1347.787</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>27.28</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>18.85</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>968</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>776244.0</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>福懋</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>22.08</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>64.12</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>33104</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>福懋-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>紡織纖維右下</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1336</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>164.0</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>23.65</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>3780</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>5558.0</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>台翰</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>12.98</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>67.48</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>2133</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>台翰-電子零組件業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>24.9</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1319</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4786.201</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>18.60</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>6952</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>-11.0</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>734335562.0</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>東陽</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>44.34</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>78666</t>
-        </is>
-      </c>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>東陽-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
-          <t>汽車工業右上</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>46.68</t>
-        </is>
-      </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1309</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1001.88</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1297</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>-2.07</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>-36425956.0</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>台達化</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>11.83</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>96.05</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>5745</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>發泡級聚苯乙烯(EPS)46.39%、ABS樹脂25.42%、通用級聚苯乙烯(GPS)24.69%、玻璃棉產品3.46%、耐衝擊聚苯乙烯(IPS)0.04% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>台達化-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>15.84</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>476.573</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>-3776631.0</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>泰山</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>14.09</t>
-        </is>
-      </c>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>19.18</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>10775</t>
-        </is>
-      </c>
-      <c r="AN41" t="inlineStr">
-        <is>
-          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>泰山-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AP41" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>26.34</t>
-        </is>
-      </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>-0.91</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>9485.599</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>18.57</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>43.7</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>6517</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>77315648.0</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>12.4</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>20.52</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>159595</t>
-        </is>
-      </c>
-      <c r="AN42" t="inlineStr">
-        <is>
-          <t>水泥及熟料100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AR42" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>

--- a/Result/check3/2025-03-04.xlsx
+++ b/Result/check3/2025-03-04.xlsx
@@ -718,17 +718,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.81</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>35.41</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>28819</t>
+          <t>28504</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.92</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>18803</t>
+          <t>18271</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.03</t>
+          <t>18.12</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>27.73</t>
+          <t>23.83</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21136</t>
+          <t>21246</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1399,17 +1399,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>34064</t>
+          <t>33187</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1626,17 +1626,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>23.78</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>91</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>15140</t>
+          <t>17974</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>53.87</t>
+          <t>57.28</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>67.48</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>16178</t>
+          <t>17201</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3373</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.68</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>133.03</t>
+          <t>133.64</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>48919</t>
+          <t>48808</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3563</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2726.603</t>
+          <t>940.659</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2050,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>49.58</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>480.5</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,72 +2080,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2335</t>
+          <t>655</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2160,27 +2160,27 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3198721058.0</t>
+          <t>-9593199.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>牧德</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -2195,47 +2195,47 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>105.98</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>26166</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
+          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>牧德-光電業-上市</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2257,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>186.55</t>
+          <t>2726.603</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,142 +2277,142 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>49.58</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>480.5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1732</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-3.18</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>55.5</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>36.72</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2034</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-2.93</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>79.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>16532826.0</t>
+          <t>3198721058.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>牧德</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2422,47 +2422,47 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>101.63</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>25092</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
+          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>牧德-光電業-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>86.18</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3266</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.002</t>
+          <t>186.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,27 +2504,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2534,37 +2534,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>33.21</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>-6.26</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2574,32 +2574,32 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2614,32 +2614,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-1478974.0</t>
+          <t>16532826.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>昇陽</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2649,47 +2649,47 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>19.98</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>48.97</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>5537</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>房地銷售91.19%、營建工程7.66%、租賃1.14% (2023年)</t>
+          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>昇陽-建材營造-上市</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2567.0</t>
+          <t>23.002</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,192 +2731,192 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-3.26</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>84.9</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>10.91</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>6907</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-0.94</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-1478974.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>昇陽</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>-305402.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>威剛</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>33.38</t>
-        </is>
-      </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>75.07</t>
+          <t>49.98</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>31052</t>
+          <t>6483</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
+          <t>房地銷售91.19%、營建工程7.66%、租賃1.14% (2023年)</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>威剛-半導體業-上櫃</t>
+          <t>昇陽-建材營造-上市</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>56.66</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -2938,17 +2938,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>772.813</t>
+          <t>2567.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,27 +2958,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>84.9</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2988,72 +2988,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>87</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>7092</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3068,82 +3068,82 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-40242989.0</t>
+          <t>-305402.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>中再保</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>74.57</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>22651</t>
+          <t>30596</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
+          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>中再保-金融保險-上市</t>
+          <t>威剛-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>56.66</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3165,17 +3165,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3654.812</t>
+          <t>229.576</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,27 +3185,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,37 +3215,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -3255,32 +3255,32 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3290,37 +3290,37 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>152708524.0</t>
+          <t>-2708681.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>夆典</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3330,47 +3330,47 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>49.98</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>68851</t>
+          <t>2941</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>建材營建69.23%、電機17.85%、其他7.22%、光電產品5.70% (2023年)</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>夆典-建材營造-上市</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3392,122 +3392,122 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3654.812</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>352.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>30.4</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>12.64</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1574</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3522,27 +3522,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>19257344.0</t>
+          <t>152708524.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3557,37 +3557,37 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>12605</t>
+          <t>69054</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25266.644</t>
+          <t>352.43</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,137 +3639,137 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>83.70</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>30.4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>1230383595.0</t>
+          <t>19257344.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3784,37 +3784,37 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>114790</t>
+          <t>12460</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -3846,122 +3846,122 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25266.644</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14602.892</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>72.6</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>25603</t>
+          <t>7926</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3976,32 +3976,32 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-4163458484.0</t>
+          <t>1230383595.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4011,47 +4011,47 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>272384</t>
+          <t>116170</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>763.944</t>
+          <t>14602.892</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4093,137 +4093,137 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>72.6</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>24250</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-1.95</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>30.45</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1604</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-30387545.0</t>
+          <t>-4163458484.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -4238,37 +4238,37 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>34522</t>
+          <t>268194</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2477.782</t>
+          <t>763.944</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4320,17 +4320,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4350,32 +4350,32 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>41.49</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>22454</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4385,37 +4385,37 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4430,32 +4430,32 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>72202522.0</t>
+          <t>-30387545.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4465,47 +4465,47 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>34415</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26468.02</t>
+          <t>2477.782</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4547,27 +4547,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>38.15</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4577,72 +4577,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>40.76</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>24835</t>
+          <t>37186</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4657,27 +4657,27 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>-86335767.0</t>
+          <t>72202522.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>銘旺科</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -4707,32 +4707,32 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>117702</t>
+          <t>5393</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>友達-光電業-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -4754,17 +4754,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>75503.996</t>
+          <t>26468.02</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4774,27 +4774,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>48.66</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4804,72 +4804,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>692</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>54384</t>
+          <t>62175</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -4894,22 +4894,22 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>4097127998.0</t>
+          <t>-86335767.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>友達</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -4919,47 +4919,47 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>28561</t>
+          <t>115402</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>友達-光電業-上市</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -4981,17 +4981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1322.493</t>
+          <t>75503.996</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5001,142 +5001,142 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>48.66</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>50352</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-8.91</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>26.55</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>542</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-1.10</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>37209128.0</t>
+          <t>4097127998.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>盛餘</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5146,47 +5146,47 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>42.97</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>8784</t>
+          <t>26747</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>盛餘-鋼鐵工業-上市</t>
+          <t>廣宇-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -5258,17 +5258,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2332</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5278,12 +5278,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5383,17 +5383,17 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>42.97</t>
+          <t>42.14</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>13730</t>
+          <t>13601</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
@@ -5485,84 +5485,84 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2853</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-1.01</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>508.0</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>2025-02-26</t>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5610,17 +5610,17 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>5129</t>
+          <t>5198</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
@@ -5712,17 +5712,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2166</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5837,17 +5837,17 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>18.81</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
@@ -5939,17 +5939,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>2662</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -6064,17 +6064,17 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>33272</t>
+          <t>32177</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
@@ -6166,17 +6166,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6291,17 +6291,17 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>67.48</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>2129</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
@@ -6393,17 +6393,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>14.89</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>173</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>6861</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6413,12 +6413,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>19.05</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>44.33</t>
+          <t>44.14</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>82807</t>
+          <t>83398</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
@@ -6620,17 +6620,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>865</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -6640,12 +6640,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -6745,17 +6745,17 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>19.25</t>
+          <t>19.12</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>10825</t>
+          <t>10750</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
@@ -6847,17 +6847,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>559</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>11420</t>
+          <t>13639</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -6972,17 +6972,17 @@
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>161369</t>
+          <t>159950</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">

--- a/Result/check3/2025-03-04.xlsx
+++ b/Result/check3/2025-03-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
